--- a/process/Iteration04.xlsx
+++ b/process/Iteration04.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Process</t>
   </si>
@@ -30,43 +30,28 @@
     <t>Iteration Backlog</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Matches</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Iteration #03 Goals and Tasks</t>
-  </si>
-  <si>
-    <t>Remove initial load in app</t>
-  </si>
-  <si>
-    <t>Cache results</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
     <t>Deploy latests version</t>
   </si>
   <si>
-    <t>Historical Matches</t>
-  </si>
-  <si>
-    <t>Current Matches</t>
+    <t>Iteration #04 Goals and Tasks</t>
+  </si>
+  <si>
+    <t>Feeds</t>
+  </si>
+  <si>
+    <t>Update Finished</t>
+  </si>
+  <si>
+    <t>Map Names</t>
+  </si>
+  <si>
+    <t>Read and Apply Feed 6 minutes</t>
+  </si>
+  <si>
+    <t>Feed Address in Config</t>
   </si>
 </sst>
 </file>
@@ -144,14 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -446,96 +430,62 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
+      <c r="A13" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration04.xlsx
+++ b/process/Iteration04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Process</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Feed Address in Config</t>
+  </si>
+  <si>
+    <t>Translate Names</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -445,47 +448,52 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
-    </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3"/>
-    </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration04.xlsx
+++ b/process/Iteration04.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Process</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Translate Names</t>
+  </si>
+  <si>
+    <t>Match Number in Match API</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -476,24 +479,29 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3"/>
-    </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration04.xlsx
+++ b/process/Iteration04.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Process</t>
   </si>
@@ -57,14 +62,23 @@
     <t>Translate Names</t>
   </si>
   <si>
-    <t>Match Number in Match API</t>
+    <t>Process Incomplete Data</t>
+  </si>
+  <si>
+    <t>Don't Read Feed at Start</t>
+  </si>
+  <si>
+    <t>Match Number in New Match API</t>
+  </si>
+  <si>
+    <t>Match Number as String</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,93 +429,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
